--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephkananth/Downloads/bubbles_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CF482-D996-3848-927D-E64C622772E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4FC2A6-A618-4248-8048-FE4122BA969E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
   <si>
     <t>Steph</t>
   </si>
@@ -434,19 +434,69 @@
   </si>
   <si>
     <t>pr_support_diff</t>
+  </si>
+  <si>
+    <t>avg_out_know_2017</t>
+  </si>
+  <si>
+    <t>avg_out_like_2017</t>
+  </si>
+  <si>
+    <t>avg_out_contact_2017</t>
+  </si>
+  <si>
+    <t>avg_out_trust_2017</t>
+  </si>
+  <si>
+    <t>avg_out_support_2017</t>
+  </si>
+  <si>
+    <t>avg_out_know_2019</t>
+  </si>
+  <si>
+    <t>avg_out_like_2019</t>
+  </si>
+  <si>
+    <t>avg_out_contact_2019</t>
+  </si>
+  <si>
+    <t>avg_out_trust_2019</t>
+  </si>
+  <si>
+    <t>avg_out_support_2019</t>
+  </si>
+  <si>
+    <t>avg_out_know_diff</t>
+  </si>
+  <si>
+    <t>avg_out_like_diff</t>
+  </si>
+  <si>
+    <t>avg_out_contact_diff</t>
+  </si>
+  <si>
+    <t>avg_out_trust_diff</t>
+  </si>
+  <si>
+    <t>avg_out_support_diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -463,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,13 +536,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -797,164 +864,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="AX1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1214,53 @@
       <c r="AW2">
         <v>-9.8744832909397617E-3</v>
       </c>
+      <c r="AX2">
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="AY2">
+        <v>3.1538461538461542</v>
+      </c>
+      <c r="AZ2">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="BA2">
+        <v>2.692307692307693</v>
+      </c>
+      <c r="BB2">
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="BC2">
+        <v>2.5384615384615379</v>
+      </c>
+      <c r="BD2">
+        <v>3.4615384615384621</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="BG2">
+        <v>1.0769230769230771</v>
+      </c>
+      <c r="BH2">
+        <v>-0.23076923076923081</v>
+      </c>
+      <c r="BI2">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="BJ2">
+        <v>-0.84615384615384615</v>
+      </c>
+      <c r="BK2">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="BL2">
+        <v>-0.84615384615384615</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,8 +1408,53 @@
       <c r="AW3">
         <v>-7.9165458320150928E-3</v>
       </c>
+      <c r="AX3">
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="AY3">
+        <v>4.6923076923076934</v>
+      </c>
+      <c r="AZ3">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>2.692307692307693</v>
+      </c>
+      <c r="BC3">
+        <v>3.4615384615384621</v>
+      </c>
+      <c r="BD3">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="BE3">
+        <v>1.615384615384615</v>
+      </c>
+      <c r="BF3">
+        <v>3.384615384615385</v>
+      </c>
+      <c r="BG3">
+        <v>2.1538461538461542</v>
+      </c>
+      <c r="BH3">
+        <v>-0.46153846153846162</v>
+      </c>
+      <c r="BI3">
+        <v>-0.46153846153846162</v>
+      </c>
+      <c r="BJ3">
+        <v>-0.76923076923076927</v>
+      </c>
+      <c r="BK3">
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="BL3">
+        <v>-0.53846153846153844</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,8 +1593,23 @@
       <c r="AW4">
         <v>3.1471142239131028E-3</v>
       </c>
+      <c r="AX4">
+        <v>3.1538461538461542</v>
+      </c>
+      <c r="AY4">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="AZ4">
+        <v>2.307692307692307</v>
+      </c>
+      <c r="BA4">
+        <v>3.692307692307693</v>
+      </c>
+      <c r="BB4">
+        <v>2.5384615384615379</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,8 +1757,53 @@
       <c r="AW5">
         <v>-8.3731437211142096E-3</v>
       </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="AZ5">
+        <v>1.7692307692307689</v>
+      </c>
+      <c r="BA5">
+        <v>3.692307692307693</v>
+      </c>
+      <c r="BB5">
+        <v>2.692307692307693</v>
+      </c>
+      <c r="BC5">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="BD5">
+        <v>3.307692307692307</v>
+      </c>
+      <c r="BE5">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BF5">
+        <v>2.4615384615384621</v>
+      </c>
+      <c r="BG5">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="BH5">
+        <v>-0.76923076923076927</v>
+      </c>
+      <c r="BI5">
+        <v>-1.2307692307692311</v>
+      </c>
+      <c r="BJ5">
+        <v>-0.23076923076923081</v>
+      </c>
+      <c r="BK5">
+        <v>-1.2307692307692311</v>
+      </c>
+      <c r="BL5">
+        <v>-0.61538461538461542</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1689,8 +1951,53 @@
       <c r="AW6">
         <v>-1.9783397531903811E-3</v>
       </c>
+      <c r="AX6">
+        <v>3.4615384615384621</v>
+      </c>
+      <c r="AY6">
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="AZ6">
+        <v>2.307692307692307</v>
+      </c>
+      <c r="BA6">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="BB6">
+        <v>2.615384615384615</v>
+      </c>
+      <c r="BC6">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="BD6">
+        <v>3.692307692307693</v>
+      </c>
+      <c r="BE6">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BF6">
+        <v>2.5384615384615379</v>
+      </c>
+      <c r="BG6">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="BH6">
+        <v>-1.0769230769230771</v>
+      </c>
+      <c r="BI6">
+        <v>-0.46153846153846162</v>
+      </c>
+      <c r="BJ6">
+        <v>-0.76923076923076927</v>
+      </c>
+      <c r="BK6">
+        <v>-1.3076923076923079</v>
+      </c>
+      <c r="BL6">
+        <v>-1.2307692307692311</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1838,8 +2145,53 @@
       <c r="AW7">
         <v>-5.8038674032465931E-3</v>
       </c>
+      <c r="AX7">
+        <v>4.3076923076923066</v>
+      </c>
+      <c r="AY7">
+        <v>4.384615384615385</v>
+      </c>
+      <c r="AZ7">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="BA7">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="BB7">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="BC7">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="BD7">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="BE7">
+        <v>2.5384615384615379</v>
+      </c>
+      <c r="BF7">
+        <v>3.1538461538461542</v>
+      </c>
+      <c r="BG7">
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="BH7">
+        <v>-7.6923076923076927E-2</v>
+      </c>
+      <c r="BI7">
+        <v>-0.15384615384615391</v>
+      </c>
+      <c r="BJ7">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="BK7">
+        <v>-7.6923076923076927E-2</v>
+      </c>
+      <c r="BL7">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1987,8 +2339,53 @@
       <c r="AW8">
         <v>-1.07083941545677E-3</v>
       </c>
+      <c r="AX8">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="AY8">
+        <v>3.692307692307693</v>
+      </c>
+      <c r="AZ8">
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="BA8">
+        <v>3.5384615384615379</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>3</v>
+      </c>
+      <c r="BD8">
+        <v>3.615384615384615</v>
+      </c>
+      <c r="BE8">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="BF8">
+        <v>3.307692307692307</v>
+      </c>
+      <c r="BG8">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="BH8">
+        <v>-0.76923076923076927</v>
+      </c>
+      <c r="BI8">
+        <v>-7.6923076923076927E-2</v>
+      </c>
+      <c r="BJ8">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="BK8">
+        <v>-0.23076923076923081</v>
+      </c>
+      <c r="BL8">
+        <v>0.23076923076923081</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2136,8 +2533,53 @@
       <c r="AW9">
         <v>1.2045904373067609E-2</v>
       </c>
+      <c r="AX9">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="AY9">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AZ9">
+        <v>2.1538461538461542</v>
+      </c>
+      <c r="BA9">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="BB9">
+        <v>1.615384615384615</v>
+      </c>
+      <c r="BC9">
+        <v>3.615384615384615</v>
+      </c>
+      <c r="BD9">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="BG9">
+        <v>1.0769230769230771</v>
+      </c>
+      <c r="BH9">
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="BI9">
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="BJ9">
+        <v>-0.15384615384615391</v>
+      </c>
+      <c r="BK9">
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="BL9">
+        <v>-0.53846153846153844</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2285,8 +2727,53 @@
       <c r="AW10">
         <v>9.4662127627052756E-3</v>
       </c>
+      <c r="AX10">
+        <v>3.384615384615385</v>
+      </c>
+      <c r="AY10">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="AZ10">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="BA10">
+        <v>3.1538461538461542</v>
+      </c>
+      <c r="BB10">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="BC10">
+        <v>2.8461538461538458</v>
+      </c>
+      <c r="BD10">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="BE10">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BF10">
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="BG10">
+        <v>1.7692307692307689</v>
+      </c>
+      <c r="BH10">
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="BI10">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="BJ10">
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="BK10">
+        <v>-0.38461538461538458</v>
+      </c>
+      <c r="BL10">
+        <v>-0.30769230769230771</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2434,8 +2921,53 @@
       <c r="AW11">
         <v>6.338462147151433E-3</v>
       </c>
+      <c r="AX11">
+        <v>3.384615384615385</v>
+      </c>
+      <c r="AY11">
+        <v>4</v>
+      </c>
+      <c r="AZ11">
+        <v>1.6923076923076921</v>
+      </c>
+      <c r="BA11">
+        <v>3.4615384615384621</v>
+      </c>
+      <c r="BB11">
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="BC11">
+        <v>3.5384615384615379</v>
+      </c>
+      <c r="BD11">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="BE11">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="BF11">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="BG11">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BH11">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="BI11">
+        <v>-0.23076923076923081</v>
+      </c>
+      <c r="BJ11">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="BK11">
+        <v>-0.23076923076923081</v>
+      </c>
+      <c r="BL11">
+        <v>-0.38461538461538458</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -2583,8 +3115,53 @@
       <c r="AW12">
         <v>1.143430863882983E-2</v>
       </c>
+      <c r="AX12">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="AY12">
+        <v>4.6923076923076934</v>
+      </c>
+      <c r="AZ12">
+        <v>2.8461538461538458</v>
+      </c>
+      <c r="BA12">
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="BB12">
+        <v>2.1538461538461542</v>
+      </c>
+      <c r="BC12">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="BD12">
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="BE12">
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="BF12">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="BG12">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BH12">
+        <v>-0.38461538461538458</v>
+      </c>
+      <c r="BI12">
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="BJ12">
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="BK12">
+        <v>-0.15384615384615391</v>
+      </c>
+      <c r="BL12">
+        <v>-0.61538461538461542</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -2711,8 +3288,23 @@
       <c r="AW13">
         <v>1.3770280345873701E-2</v>
       </c>
+      <c r="AX13">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="AY13">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="AZ13">
+        <v>2.1538461538461542</v>
+      </c>
+      <c r="BA13">
+        <v>3.1538461538461542</v>
+      </c>
+      <c r="BB13">
+        <v>2.692307692307693</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -2839,8 +3431,23 @@
       <c r="AW14">
         <v>-1.7978510577426551E-2</v>
       </c>
+      <c r="AX14">
+        <v>3.5384615384615379</v>
+      </c>
+      <c r="AY14">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AZ14">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="BA14">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="BB14">
+        <v>1.461538461538461</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2987,6 +3594,51 @@
       </c>
       <c r="AW15">
         <v>-3.206552498151619E-3</v>
+      </c>
+      <c r="AX15">
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="AY15">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AZ15">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="BA15">
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="BB15">
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="BC15">
+        <v>3.615384615384615</v>
+      </c>
+      <c r="BD15">
+        <v>4</v>
+      </c>
+      <c r="BE15">
+        <v>1.7692307692307689</v>
+      </c>
+      <c r="BF15">
+        <v>3.5384615384615379</v>
+      </c>
+      <c r="BG15">
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="BH15">
+        <v>-0.84615384615384615</v>
+      </c>
+      <c r="BI15">
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="BJ15">
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="BK15">
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="BL15">
+        <v>-0.84615384615384615</v>
       </c>
     </row>
   </sheetData>
